--- a/result/test_result.xlsx
+++ b/result/test_result.xlsx
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9580479860305786</v>
+        <v>0.9413321018218994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9234704971313477</v>
+        <v>0.9448275566101074</v>
       </c>
     </row>
   </sheetData>
